--- a/data/trans_orig/P17_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>278481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>255901</v>
+        <v>256288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>300669</v>
+        <v>300555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5896602901191288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5418503231953871</v>
+        <v>0.5426701985255189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6366429803256315</v>
+        <v>0.6364003659703606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -765,19 +765,19 @@
         <v>215521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198800</v>
+        <v>198688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231967</v>
+        <v>230634</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7027549398697629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6482313539087668</v>
+        <v>0.6478677080275986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.756379967214964</v>
+        <v>0.7520354212456209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>478</v>
@@ -786,19 +786,19 @@
         <v>494002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>466090</v>
+        <v>464491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>519752</v>
+        <v>522551</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6341866048772523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5983549356178637</v>
+        <v>0.5963020709185397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.66724383718556</v>
+        <v>0.6708373510698333</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>193792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171604</v>
+        <v>171718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>216372</v>
+        <v>215985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4103397098808713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3633570196743682</v>
+        <v>0.3635996340296394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4581496768046126</v>
+        <v>0.457329801474481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -836,19 +836,19 @@
         <v>91159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74713</v>
+        <v>76046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107880</v>
+        <v>107992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2972450601302371</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2436200327850359</v>
+        <v>0.2479645787543792</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3517686460912332</v>
+        <v>0.3521322919724014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -857,19 +857,19 @@
         <v>284951</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259201</v>
+        <v>256402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312863</v>
+        <v>314462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3658133951227476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.33275616281444</v>
+        <v>0.3291626489301666</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4016450643821364</v>
+        <v>0.4036979290814603</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>220980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201362</v>
+        <v>201105</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239328</v>
+        <v>238367</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6050316784414811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5513174594267478</v>
+        <v>0.5506154097748693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6552665915811047</v>
+        <v>0.6526374593199621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -982,19 +982,19 @@
         <v>270987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>253085</v>
+        <v>254442</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>286715</v>
+        <v>287647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7287240128096005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6805843280315753</v>
+        <v>0.6842322580513512</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7710199973345713</v>
+        <v>0.7735253930109104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>477</v>
@@ -1003,19 +1003,19 @@
         <v>491967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>463918</v>
+        <v>463319</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>516039</v>
+        <v>517020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6674339263213718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.629381402850157</v>
+        <v>0.6285684106530444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.700091838350323</v>
+        <v>0.7014224800664013</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>144257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125909</v>
+        <v>126870</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163875</v>
+        <v>164132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.394968321558519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3447334084188953</v>
+        <v>0.3473625406800377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4486825405732521</v>
+        <v>0.4493845902251305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -1053,19 +1053,19 @@
         <v>100878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85150</v>
+        <v>84218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118780</v>
+        <v>117423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2712759871903995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2289800026654287</v>
+        <v>0.2264746069890895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3194156719684245</v>
+        <v>0.3157677419486484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>234</v>
@@ -1074,19 +1074,19 @@
         <v>245135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>221063</v>
+        <v>220082</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>273184</v>
+        <v>273783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3325660736786282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2999081616496767</v>
+        <v>0.2985775199335988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3706185971498429</v>
+        <v>0.3714315893469557</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>354337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>330526</v>
+        <v>330274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>375860</v>
+        <v>376155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6532897849422412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6093894753881001</v>
+        <v>0.608924960055751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6929718331287699</v>
+        <v>0.6935155529889964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -1199,19 +1199,19 @@
         <v>127087</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115678</v>
+        <v>115022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138163</v>
+        <v>137469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7574508816766762</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6894534689075047</v>
+        <v>0.6855416194521322</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8234674822512361</v>
+        <v>0.8193297644931957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>477</v>
@@ -1220,19 +1220,19 @@
         <v>481424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>454120</v>
+        <v>456506</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>505758</v>
+        <v>506753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6778984319599813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6394517265558978</v>
+        <v>0.6428118850317457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7121642834395671</v>
+        <v>0.7135642190435141</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>188052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166529</v>
+        <v>166234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>211863</v>
+        <v>212115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3467102150577588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.30702816687123</v>
+        <v>0.3064844470110036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3906105246118993</v>
+        <v>0.3910750399442489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1270,19 +1270,19 @@
         <v>40695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29619</v>
+        <v>30313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52104</v>
+        <v>52760</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2425491183233238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1765325177487639</v>
+        <v>0.1806702355068043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3105465310924954</v>
+        <v>0.3144583805478677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>219</v>
@@ -1291,19 +1291,19 @@
         <v>228747</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204413</v>
+        <v>203418</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>256051</v>
+        <v>253665</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3221015680400187</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2878357165604329</v>
+        <v>0.2864357809564861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3605482734441022</v>
+        <v>0.3571881149682543</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>809752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>776305</v>
+        <v>778526</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>844429</v>
+        <v>843057</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6561526404659402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6290503905291845</v>
+        <v>0.6308496136028879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6842521798392296</v>
+        <v>0.6831398694306123</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>531</v>
@@ -1416,19 +1416,19 @@
         <v>541716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>517361</v>
+        <v>517161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>563473</v>
+        <v>565059</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7584034755557985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.724305874609233</v>
+        <v>0.7240267843920041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7888634465155449</v>
+        <v>0.7910830514079603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1336</v>
@@ -1437,19 +1437,19 @@
         <v>1351468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1309194</v>
+        <v>1314369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1391721</v>
+        <v>1391203</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6936383534943267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6719412225966664</v>
+        <v>0.6745971764318363</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7142979763567662</v>
+        <v>0.7140321481199638</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>424339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389662</v>
+        <v>391034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>457786</v>
+        <v>455565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3438473595340598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3157478201607703</v>
+        <v>0.3168601305693874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3709496094708154</v>
+        <v>0.3691503863971121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1487,19 +1487,19 @@
         <v>172569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150812</v>
+        <v>149226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196924</v>
+        <v>197124</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2415965244442015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2111365534844552</v>
+        <v>0.2089169485920401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.275694125390767</v>
+        <v>0.2759732156079961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>578</v>
@@ -1508,19 +1508,19 @@
         <v>596908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>556655</v>
+        <v>557173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>639182</v>
+        <v>634007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3063616465056733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2857020236432338</v>
+        <v>0.2859678518800365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3280587774033336</v>
+        <v>0.3254028235681657</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>216301</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196449</v>
+        <v>197375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>235214</v>
+        <v>233993</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6187510143247695</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5619620695336294</v>
+        <v>0.5646118172362872</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6728529018698112</v>
+        <v>0.6693613251700749</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>417</v>
@@ -1633,19 +1633,19 @@
         <v>440310</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>419541</v>
+        <v>417923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>459844</v>
+        <v>459364</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7741683954013433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7376517998615721</v>
+        <v>0.7348066991910502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8085141097129936</v>
+        <v>0.8076700696184831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>629</v>
@@ -1654,19 +1654,19 @@
         <v>656610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>626511</v>
+        <v>627621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>684267</v>
+        <v>683632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7150062353938712</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.682230232984929</v>
+        <v>0.6834390147488317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7451222071747536</v>
+        <v>0.7444316752319823</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>133276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114363</v>
+        <v>115584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153128</v>
+        <v>152202</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3812489856752304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3271470981301887</v>
+        <v>0.3306386748299251</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4380379304663706</v>
+        <v>0.4353881827637127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -1704,19 +1704,19 @@
         <v>128442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108908</v>
+        <v>109388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>149211</v>
+        <v>150829</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2258316045986567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1914858902870061</v>
+        <v>0.1923299303815169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2623482001384276</v>
+        <v>0.2651933008089497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -1725,19 +1725,19 @@
         <v>261718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234061</v>
+        <v>234696</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>291817</v>
+        <v>290707</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2849937646061288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.254877792825246</v>
+        <v>0.2555683247680177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3177697670150709</v>
+        <v>0.3165609852511682</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>155604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>139301</v>
+        <v>138367</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172031</v>
+        <v>171069</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5235438110628379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4686927727640682</v>
+        <v>0.4655501078790398</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5788164170107031</v>
+        <v>0.5755796225359805</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>978</v>
@@ -1850,19 +1850,19 @@
         <v>987920</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>959346</v>
+        <v>961430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1016131</v>
+        <v>1015362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7923319336504114</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7694150438548258</v>
+        <v>0.771086794887456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8149580498399958</v>
+        <v>0.8143412704324161</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1139</v>
@@ -1871,19 +1871,19 @@
         <v>1143523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1110919</v>
+        <v>1111174</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1176872</v>
+        <v>1178767</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7405937941616383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7194778705023785</v>
+        <v>0.7196426853343985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7621916876658091</v>
+        <v>0.7634192044687138</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>141608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125181</v>
+        <v>126143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157911</v>
+        <v>158845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4764561889371621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.421183582989297</v>
+        <v>0.4244203774640195</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5313072272359318</v>
+        <v>0.5344498921209602</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -1921,19 +1921,19 @@
         <v>258931</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230720</v>
+        <v>231489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>287505</v>
+        <v>285421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2076680663495886</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1850419501600045</v>
+        <v>0.1856587295675839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2305849561451742</v>
+        <v>0.228913205112544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>402</v>
@@ -1942,19 +1942,19 @@
         <v>400540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>367191</v>
+        <v>365296</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433144</v>
+        <v>432889</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2594062058383617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2378083123341908</v>
+        <v>0.2365807955312862</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2805221294976215</v>
+        <v>0.2803573146656015</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2035455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1980129</v>
+        <v>1977499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2092168</v>
+        <v>2092947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6242233928662952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6072564735926711</v>
+        <v>0.6064499060241225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6416159340967436</v>
+        <v>0.6418548722486858</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2522</v>
@@ -2067,19 +2067,19 @@
         <v>2583541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2529658</v>
+        <v>2534403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2634403</v>
+        <v>2629220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7652179639882902</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7492583542213362</v>
+        <v>0.7506636805193366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7802825776787911</v>
+        <v>0.778747707199998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4536</v>
@@ -2088,19 +2088,19 @@
         <v>4618995</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4539699</v>
+        <v>4542306</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4697427</v>
+        <v>4693275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6959468374937213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6839991898710887</v>
+        <v>0.6843920139990237</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7077642661013132</v>
+        <v>0.707138628403981</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1225324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1168611</v>
+        <v>1167832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1280650</v>
+        <v>1283280</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3757766071337048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3583840659032568</v>
+        <v>0.3581451277513144</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3927435264073289</v>
+        <v>0.3935500939758776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>772</v>
@@ -2138,19 +2138,19 @@
         <v>792675</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>741813</v>
+        <v>746996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>846558</v>
+        <v>841813</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2347820360117097</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2197174223212089</v>
+        <v>0.2212522928000021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2507416457786639</v>
+        <v>0.2493363194806633</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1956</v>
@@ -2159,19 +2159,19 @@
         <v>2017999</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1939567</v>
+        <v>1943719</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2097295</v>
+        <v>2094688</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3040531625062787</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2922357338986869</v>
+        <v>0.292861371596019</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3160008101289113</v>
+        <v>0.3156079860009763</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>279407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259265</v>
+        <v>255979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299913</v>
+        <v>300602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6390674592504331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5929970693181634</v>
+        <v>0.5854809033339651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6859686156109952</v>
+        <v>0.6875453392977245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -2526,19 +2526,19 @@
         <v>241747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225540</v>
+        <v>226141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>255254</v>
+        <v>257228</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7740073602476696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7221177670202807</v>
+        <v>0.7240399091153487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8172527851233267</v>
+        <v>0.8235724886638159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>477</v>
@@ -2547,19 +2547,19 @@
         <v>521155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>493815</v>
+        <v>494510</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>547448</v>
+        <v>548420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6952964996063155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6588213061453586</v>
+        <v>0.6597493328663071</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7303751143499837</v>
+        <v>0.7316722289524425</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>157804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137298</v>
+        <v>136609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177946</v>
+        <v>181232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.360932540749567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3140313843890051</v>
+        <v>0.3124546607022754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4070029306818366</v>
+        <v>0.4145190966660348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -2597,19 +2597,19 @@
         <v>70585</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57078</v>
+        <v>55104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86792</v>
+        <v>86191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2259926397523304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1827472148766733</v>
+        <v>0.1764275113361843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2778822329797187</v>
+        <v>0.2759600908846514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -2618,19 +2618,19 @@
         <v>228388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202095</v>
+        <v>201123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>255728</v>
+        <v>255033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3047035003936845</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2696248856500162</v>
+        <v>0.2683277710475574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3411786938546413</v>
+        <v>0.3402506671336928</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>279302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256291</v>
+        <v>255969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>298093</v>
+        <v>298937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6669141775046977</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6119699629342374</v>
+        <v>0.6112012063494578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7117849373061976</v>
+        <v>0.7138001990974286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>240</v>
@@ -2743,19 +2743,19 @@
         <v>263392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246866</v>
+        <v>244856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>279672</v>
+        <v>277694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7792418250200558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7303491013251728</v>
+        <v>0.7244038373074937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8274048410227409</v>
+        <v>0.8215545292522406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>488</v>
@@ -2764,19 +2764,19 @@
         <v>542694</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>515188</v>
+        <v>515970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>568161</v>
+        <v>570209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7170827654536381</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.680738278472736</v>
+        <v>0.6817708803547372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7507327303553345</v>
+        <v>0.7534388874286424</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>139495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120704</v>
+        <v>119860</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>162506</v>
+        <v>162828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3330858224953023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2882150626938024</v>
+        <v>0.2861998009025713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3880300370657625</v>
+        <v>0.388798793650542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -2814,19 +2814,19 @@
         <v>74619</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58339</v>
+        <v>60317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91145</v>
+        <v>93155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2207581749799442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1725951589772591</v>
+        <v>0.1784454707477594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2696508986748273</v>
+        <v>0.2755961626925063</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>192</v>
@@ -2835,19 +2835,19 @@
         <v>214114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>188647</v>
+        <v>186599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241620</v>
+        <v>240838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2829172345463618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2492672696446654</v>
+        <v>0.2465611125713576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.319261721527264</v>
+        <v>0.3182291196452627</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>468112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>445698</v>
+        <v>444257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>491578</v>
+        <v>491614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7437251501720216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7081143640302343</v>
+        <v>0.7058250929723345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7810075454937512</v>
+        <v>0.7810644384329163</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -2960,19 +2960,19 @@
         <v>207608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193499</v>
+        <v>193583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219735</v>
+        <v>220440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7980962719350252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7438594612019886</v>
+        <v>0.7441795585358786</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8447155468970019</v>
+        <v>0.8474245098078573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>633</v>
@@ -2981,19 +2981,19 @@
         <v>675720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>648198</v>
+        <v>647713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>699839</v>
+        <v>699696</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7596248976180003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7286856700809409</v>
+        <v>0.7281407490044781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7867389680629753</v>
+        <v>0.7865786984808024</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>161303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137837</v>
+        <v>137801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183717</v>
+        <v>185158</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2562748498279784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2189924545062486</v>
+        <v>0.2189355615670837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2918856359697653</v>
+        <v>0.2941749070276654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -3031,19 +3031,19 @@
         <v>52521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40394</v>
+        <v>39689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66630</v>
+        <v>66546</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2019037280649748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1552844531029982</v>
+        <v>0.1525754901921429</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2561405387980113</v>
+        <v>0.2558204414641214</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -3052,19 +3052,19 @@
         <v>213824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189705</v>
+        <v>189848</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241346</v>
+        <v>241831</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2403751023819996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2132610319370246</v>
+        <v>0.2134213015191976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2713143299190591</v>
+        <v>0.2718592509955219</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>850537</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>817947</v>
+        <v>817226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>879577</v>
+        <v>879791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7345192687543109</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7063748407652773</v>
+        <v>0.7057522797357526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7595983314288555</v>
+        <v>0.7597834382542725</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>588</v>
@@ -3177,19 +3177,19 @@
         <v>633582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>610405</v>
+        <v>610037</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>652817</v>
+        <v>652245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8264219582147806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7961903096883415</v>
+        <v>0.795711064432535</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8515112881761225</v>
+        <v>0.8507649389414293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1379</v>
@@ -3198,19 +3198,19 @@
         <v>1484119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1444867</v>
+        <v>1443231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1522859</v>
+        <v>1519204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7711282356418498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7507334766910118</v>
+        <v>0.7498832488273243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7912569555982573</v>
+        <v>0.7893578149610698</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>307413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278373</v>
+        <v>278159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>340003</v>
+        <v>340724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2654807312456891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2404016685711445</v>
+        <v>0.2402165617457273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2936251592347225</v>
+        <v>0.2942477202642473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -3248,19 +3248,19 @@
         <v>133075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113840</v>
+        <v>114412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156252</v>
+        <v>156620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1735780417852194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1484887118238772</v>
+        <v>0.1492350610585706</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2038096903116581</v>
+        <v>0.2042889355674649</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -3269,19 +3269,19 @@
         <v>440488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>401748</v>
+        <v>405403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>479740</v>
+        <v>481376</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2288717643581502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2087430444017429</v>
+        <v>0.2106421850389305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2492665233089885</v>
+        <v>0.2501167511726759</v>
       </c>
     </row>
     <row r="15">
@@ -3376,16 +3376,16 @@
         <v>360838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>399291</v>
+        <v>400520</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7490094928015342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7081426802566374</v>
+        <v>0.7081438061816532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7836069757892046</v>
+        <v>0.7860200261394442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>599</v>
@@ -3394,19 +3394,19 @@
         <v>646589</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>623311</v>
+        <v>626499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>665384</v>
+        <v>665184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8502569461337321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8196461009221568</v>
+        <v>0.8238389655952516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8749723457998839</v>
+        <v>0.8747093355206333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>961</v>
@@ -3415,19 +3415,19 @@
         <v>1028251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>999274</v>
+        <v>997175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1055531</v>
+        <v>1055881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8096345641449967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7868183359685103</v>
+        <v>0.785165571353468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8311141129563108</v>
+        <v>0.831389715058746</v>
       </c>
     </row>
     <row r="17">
@@ -3444,7 +3444,7 @@
         <v>127893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110264</v>
+        <v>109035</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>148717</v>
@@ -3453,10 +3453,10 @@
         <v>0.2509905071984658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2163930242107954</v>
+        <v>0.2139799738605558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2918573197433625</v>
+        <v>0.2918561938183468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -3465,19 +3465,19 @@
         <v>113874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95079</v>
+        <v>95279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137152</v>
+        <v>133964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1497430538662679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1250276542001162</v>
+        <v>0.1252906644793665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1803538990778434</v>
+        <v>0.176161034404748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -3486,19 +3486,19 @@
         <v>241768</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>214488</v>
+        <v>214138</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270745</v>
+        <v>272844</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1903654358550033</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1688858870436893</v>
+        <v>0.1686102849412541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2131816640314897</v>
+        <v>0.2148344286465322</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>170528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154308</v>
+        <v>154180</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186455</v>
+        <v>185227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6389638426775001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5781880743919741</v>
+        <v>0.5777080932361017</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6986431867695511</v>
+        <v>0.6940389431162461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>868</v>
@@ -3611,19 +3611,19 @@
         <v>921593</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>895812</v>
+        <v>892364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>947115</v>
+        <v>945189</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8307495219362576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8075100661323217</v>
+        <v>0.8044021837769708</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8537558158351045</v>
+        <v>0.8520195639565473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1035</v>
@@ -3632,19 +3632,19 @@
         <v>1092121</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1063471</v>
+        <v>1062064</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1122275</v>
+        <v>1121523</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7935580545514958</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7727407785503287</v>
+        <v>0.7717183298015218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8154685782317881</v>
+        <v>0.8149226805505254</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>96354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80427</v>
+        <v>81655</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112574</v>
+        <v>112702</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3610361573224999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.301356813230449</v>
+        <v>0.3059610568837538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4218119256080267</v>
+        <v>0.4222919067638978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -3682,19 +3682,19 @@
         <v>187758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162236</v>
+        <v>164162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213539</v>
+        <v>216987</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1692504780637424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1462441841648955</v>
+        <v>0.1479804360434527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1924899338676783</v>
+        <v>0.1955978162230292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>274</v>
@@ -3703,19 +3703,19 @@
         <v>284112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253958</v>
+        <v>254710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>312762</v>
+        <v>314169</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2064419454485043</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1845314217682119</v>
+        <v>0.1850773194494745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2272592214496709</v>
+        <v>0.2282816701984782</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2429547</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2369992</v>
+        <v>2373154</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2479534</v>
+        <v>2482779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7104332837791046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6930185367334749</v>
+        <v>0.6939431060499076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7250501723526626</v>
+        <v>0.7259990126027108</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2708</v>
@@ -3828,19 +3828,19 @@
         <v>2914513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2868487</v>
+        <v>2860878</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2964369</v>
+        <v>2958101</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8216967378589363</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8087205527295972</v>
+        <v>0.8065751494990079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8357527110288691</v>
+        <v>0.8339856329497869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4973</v>
@@ -3849,19 +3849,19 @@
         <v>5344059</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5269515</v>
+        <v>5272951</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5414859</v>
+        <v>5422234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7670802265511073</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7563802472949676</v>
+        <v>0.7568734825137685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7772426979822168</v>
+        <v>0.77830135494259</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>990263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>940276</v>
+        <v>937031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1049818</v>
+        <v>1046656</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2895667162208954</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2749498276473377</v>
+        <v>0.2740009873972892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3069814632665252</v>
+        <v>0.3060568939500927</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>579</v>
@@ -3899,19 +3899,19 @@
         <v>632432</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582576</v>
+        <v>588844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>678458</v>
+        <v>686067</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1783032621410637</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1642472889711309</v>
+        <v>0.1660143670502132</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1912794472704028</v>
+        <v>0.1934248505009921</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1517</v>
@@ -3920,19 +3920,19 @@
         <v>1622695</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1551895</v>
+        <v>1544520</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1697239</v>
+        <v>1693803</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2329197734488927</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2227573020177832</v>
+        <v>0.2216986450574097</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2436197527050319</v>
+        <v>0.2431265174862314</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>308177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>287475</v>
+        <v>286200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>325846</v>
+        <v>325309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.720163244635043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6717844760052682</v>
+        <v>0.6688058705784834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7614523200532535</v>
+        <v>0.7601981196038212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -4287,19 +4287,19 @@
         <v>265805</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247139</v>
+        <v>249056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>279500</v>
+        <v>281155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7658873006291482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7121018371652715</v>
+        <v>0.717627753145492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8053478986966081</v>
+        <v>0.8101159182726202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>537</v>
@@ -4308,19 +4308,19 @@
         <v>573982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>549115</v>
+        <v>548653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>597639</v>
+        <v>598770</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7406395551565574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7085522144866893</v>
+        <v>0.707956086772724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7711644347921099</v>
+        <v>0.7726242359033326</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>119750</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102081</v>
+        <v>102618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140452</v>
+        <v>141727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2798367553649569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2385476799467466</v>
+        <v>0.2398018803961783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3282155239947316</v>
+        <v>0.3311941294215165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -4358,19 +4358,19 @@
         <v>81250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67555</v>
+        <v>65900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99916</v>
+        <v>97999</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2341126993708518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.194652101303392</v>
+        <v>0.1898840817273799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2878981628347285</v>
+        <v>0.2823722468545081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -4379,19 +4379,19 @@
         <v>201000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177343</v>
+        <v>176212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>225867</v>
+        <v>226329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2593604448434425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2288355652078902</v>
+        <v>0.2273757640966673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2914477855133109</v>
+        <v>0.292043913227276</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>272605</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251104</v>
+        <v>255748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289577</v>
+        <v>291988</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7246676322692431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6675106117925189</v>
+        <v>0.6798564529597745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.769784259033065</v>
+        <v>0.7761934132601981</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -4504,19 +4504,19 @@
         <v>273580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>257700</v>
+        <v>255618</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290859</v>
+        <v>291499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7368800319882439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6941081886060533</v>
+        <v>0.6884991022902217</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7834196045501841</v>
+        <v>0.7851446758362682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>515</v>
@@ -4525,19 +4525,19 @@
         <v>546185</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>520003</v>
+        <v>519600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572096</v>
+        <v>569124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7307336965925797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6957047084529535</v>
+        <v>0.6951652712286466</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7653984147136179</v>
+        <v>0.7614227007725878</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>103575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86603</v>
+        <v>84192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125076</v>
+        <v>120432</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2753323677307569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.230215740966935</v>
+        <v>0.2238065867398019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3324893882074813</v>
+        <v>0.3201435470402256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -4575,19 +4575,19 @@
         <v>97688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80409</v>
+        <v>79769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113568</v>
+        <v>115650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2631199680117561</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.216580395449816</v>
+        <v>0.2148553241637321</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.305891811393947</v>
+        <v>0.3115008977097783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>189</v>
@@ -4596,19 +4596,19 @@
         <v>201263</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175352</v>
+        <v>178324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227445</v>
+        <v>227848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2692663034074203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2346015852863822</v>
+        <v>0.2385772992274124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3042952915470466</v>
+        <v>0.3048347287713536</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>396130</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>374030</v>
+        <v>375077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>415500</v>
+        <v>415194</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7589940357302027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.716651546945814</v>
+        <v>0.7186570204461944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7961074279627181</v>
+        <v>0.7955225784979016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -4721,19 +4721,19 @@
         <v>142754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132508</v>
+        <v>132157</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149595</v>
+        <v>149959</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8649786659816751</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8028967665244507</v>
+        <v>0.8007675853041823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.906428979288739</v>
+        <v>0.9086336291617542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>515</v>
@@ -4742,19 +4742,19 @@
         <v>538884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513835</v>
+        <v>513655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>559988</v>
+        <v>559604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7844565169699229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7479926339229025</v>
+        <v>0.747731090080726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8151776375784908</v>
+        <v>0.8146193219922178</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>125784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106414</v>
+        <v>106720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147884</v>
+        <v>146837</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2410059642697972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2038925720372819</v>
+        <v>0.2044774215020985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2833484530541859</v>
+        <v>0.2813429795538057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -4792,19 +4792,19 @@
         <v>22284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15443</v>
+        <v>15079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32530</v>
+        <v>32881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1350213340183249</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09357102071126082</v>
+        <v>0.09136637083824586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1971032334755491</v>
+        <v>0.1992324146958176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -4813,19 +4813,19 @@
         <v>148068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126964</v>
+        <v>127348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>173117</v>
+        <v>173297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.215543483030077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.184822362421509</v>
+        <v>0.1853806780077819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2520073660770974</v>
+        <v>0.252268909919274</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>854082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>825583</v>
+        <v>823553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>883450</v>
+        <v>884595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7436737659868904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7188588994144357</v>
+        <v>0.717091449295289</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7692453211628199</v>
+        <v>0.7702423209538769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>643</v>
@@ -4938,19 +4938,19 @@
         <v>667261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>645389</v>
+        <v>641828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>689417</v>
+        <v>688676</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8131600503122816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7865054258261726</v>
+        <v>0.7821656017351755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8401596295635922</v>
+        <v>0.8392574889167221</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1466</v>
@@ -4959,19 +4959,19 @@
         <v>1521343</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1482164</v>
+        <v>1484519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1560070</v>
+        <v>1555226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7726314764082705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7527339584885626</v>
+        <v>0.7539300403188153</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7922992709619309</v>
+        <v>0.7898391123039881</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>294381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265013</v>
+        <v>263868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322880</v>
+        <v>324910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2563262340131096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2307546788371807</v>
+        <v>0.2297576790461239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2811411005855644</v>
+        <v>0.2829085507047112</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>150</v>
@@ -5009,19 +5009,19 @@
         <v>153317</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131161</v>
+        <v>131902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175189</v>
+        <v>178750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1868399496877184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1598403704364077</v>
+        <v>0.1607425110832779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2134945741738274</v>
+        <v>0.2178343982648245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>429</v>
@@ -5030,19 +5030,19 @@
         <v>447698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408971</v>
+        <v>413815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>486877</v>
+        <v>484522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2273685235917296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.207700729038069</v>
+        <v>0.2101608876960119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2472660415114375</v>
+        <v>0.2460699596811847</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>474641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>451013</v>
+        <v>451919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>495096</v>
+        <v>494864</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7687258957820357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7304589533546157</v>
+        <v>0.7319259657928719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8018552617303705</v>
+        <v>0.801479186733088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>582</v>
@@ -5155,19 +5155,19 @@
         <v>614420</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>592564</v>
+        <v>593664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>634372</v>
+        <v>634751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8355404590638051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8058187044485032</v>
+        <v>0.8073155193957509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8626728671514801</v>
+        <v>0.8631887812379408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1044</v>
@@ -5176,19 +5176,19 @@
         <v>1089060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1058645</v>
+        <v>1056500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1118718</v>
+        <v>1121119</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8050451659785802</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7825615395387571</v>
+        <v>0.7809761013040861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8269685137479201</v>
+        <v>0.8287432833592452</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>142797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122342</v>
+        <v>122574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166425</v>
+        <v>165519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2312741042179643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1981447382696294</v>
+        <v>0.1985208132669119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2695410466453839</v>
+        <v>0.2680740342071279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -5226,19 +5226,19 @@
         <v>120936</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100984</v>
+        <v>100605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142792</v>
+        <v>141692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1644595409361949</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.13732713284852</v>
+        <v>0.1368112187620591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.194181295551497</v>
+        <v>0.1926844806042493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>246</v>
@@ -5247,19 +5247,19 @@
         <v>263734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234076</v>
+        <v>231675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>294149</v>
+        <v>296294</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1949548340214197</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.17303148625208</v>
+        <v>0.171256716640755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.217438460461243</v>
+        <v>0.2190238986959138</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>201300</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185032</v>
+        <v>184859</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>216269</v>
+        <v>215281</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.706381206280301</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6492955120854113</v>
+        <v>0.6486871288014567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7589078073976289</v>
+        <v>0.7554421451517228</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>816</v>
@@ -5372,19 +5372,19 @@
         <v>900167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>876070</v>
+        <v>873481</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>922661</v>
+        <v>925029</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8341041220330082</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8117760251789095</v>
+        <v>0.8093765200143648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8549477765920749</v>
+        <v>0.8571414621356211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1006</v>
@@ -5393,19 +5393,19 @@
         <v>1101467</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1069670</v>
+        <v>1068749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1130853</v>
+        <v>1129874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8074230340585324</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7841144178948066</v>
+        <v>0.7834389974596452</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8289644399188082</v>
+        <v>0.8282464634413735</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>83674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68705</v>
+        <v>69693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99942</v>
+        <v>100115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.293618793719699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2410921926023713</v>
+        <v>0.2445578548482774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3507044879145889</v>
+        <v>0.3513128711985434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>173</v>
@@ -5443,19 +5443,19 @@
         <v>179035</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>156541</v>
+        <v>154173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>203132</v>
+        <v>205721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1658958779669918</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1450522234079252</v>
+        <v>0.1428585378643791</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1882239748210906</v>
+        <v>0.1906234799856353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>253</v>
@@ -5464,19 +5464,19 @@
         <v>262709</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233323</v>
+        <v>234302</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294506</v>
+        <v>295427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1925769659414676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1710355600811918</v>
+        <v>0.1717535365586261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2158855821051933</v>
+        <v>0.2165610025403547</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2506935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2457622</v>
+        <v>2454555</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2561002</v>
+        <v>2556326</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7423785163430235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7277755619679854</v>
+        <v>0.7268673463179943</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7583893378246102</v>
+        <v>0.7570047794972837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2681</v>
@@ -5589,19 +5589,19 @@
         <v>2863987</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2814915</v>
+        <v>2819041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2908881</v>
+        <v>2915133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8139802778899654</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8000334095220307</v>
+        <v>0.8012059929154463</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8267397560150451</v>
+        <v>0.8285166562264796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5083</v>
@@ -5610,19 +5610,19 @@
         <v>5370922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5300058</v>
+        <v>5302824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5445649</v>
+        <v>5433103</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7789145923635326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7686375690637228</v>
+        <v>0.7690386697593942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7897518216847667</v>
+        <v>0.7879323769031057</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>869961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>815894</v>
+        <v>820570</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>919274</v>
+        <v>922341</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2576214836569765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2416106621753899</v>
+        <v>0.2429952205027165</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2722244380320146</v>
+        <v>0.2731326536820057</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -5660,19 +5660,19 @@
         <v>654510</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>609616</v>
+        <v>603364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>703582</v>
+        <v>699456</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1860197221100346</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1732602439849548</v>
+        <v>0.1714833437735205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1999665904779691</v>
+        <v>0.1987940070845538</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1446</v>
@@ -5681,19 +5681,19 @@
         <v>1524471</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1449744</v>
+        <v>1462290</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1595335</v>
+        <v>1592569</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2210854076364674</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2102481783152332</v>
+        <v>0.2120676230968941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2313624309362772</v>
+        <v>0.2309613302406059</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>396614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>374486</v>
+        <v>372270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>418951</v>
+        <v>418341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7230573990148256</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6827174112853158</v>
+        <v>0.6786776806591176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7637797910627876</v>
+        <v>0.7626687221211588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>500</v>
@@ -6048,19 +6048,19 @@
         <v>355761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>338091</v>
+        <v>337340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>373173</v>
+        <v>372683</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7315858849067571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6952487760745066</v>
+        <v>0.69370500017689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7673909612900028</v>
+        <v>0.7663840352053083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>917</v>
@@ -6069,19 +6069,19 @@
         <v>752376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>721085</v>
+        <v>722019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>778891</v>
+        <v>781388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7270651854925531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6968272050304786</v>
+        <v>0.6977293615219252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7526883875685911</v>
+        <v>0.7551018456823239</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>151909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129572</v>
+        <v>130182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174037</v>
+        <v>176253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2769426009851745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.236220208937211</v>
+        <v>0.2373312778788412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3172825887146841</v>
+        <v>0.3213223193408825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -6119,19 +6119,19 @@
         <v>130527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113115</v>
+        <v>113605</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148197</v>
+        <v>148948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2684141150932429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.232609038709997</v>
+        <v>0.2336159647946917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3047512239254933</v>
+        <v>0.3062949998231098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -6140,19 +6140,19 @@
         <v>282436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>255921</v>
+        <v>253424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>313727</v>
+        <v>312793</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2729348145074468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2473116124314089</v>
+        <v>0.2448981543176761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3031727949695216</v>
+        <v>0.3022706384780749</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>336026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>311376</v>
+        <v>314860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356268</v>
+        <v>358380</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6954000291578825</v>
+        <v>0.6954000291578823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6443876058727636</v>
+        <v>0.6515975663346326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7372912037677417</v>
+        <v>0.7416610177127065</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>425</v>
@@ -6265,19 +6265,19 @@
         <v>305193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>287703</v>
+        <v>287287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>319996</v>
+        <v>320490</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7229206015403216</v>
+        <v>0.7229206015403217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6814899713908977</v>
+        <v>0.6805054378046245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7579853929903194</v>
+        <v>0.7591551362702512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>770</v>
@@ -6286,19 +6286,19 @@
         <v>641219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>614070</v>
+        <v>612152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>667429</v>
+        <v>665993</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7082325289851389</v>
+        <v>0.7082325289851386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6782467112912505</v>
+        <v>0.6761281813321673</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7371817384797146</v>
+        <v>0.7355960502729875</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>147186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126944</v>
+        <v>124832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171836</v>
+        <v>168352</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3045999708421177</v>
+        <v>0.3045999708421176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2627087962322583</v>
+        <v>0.2583389822872934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3556123941272364</v>
+        <v>0.3484024336653674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>163</v>
@@ -6336,19 +6336,19 @@
         <v>116974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>102171</v>
+        <v>101677</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134464</v>
+        <v>134880</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2770793984596784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2420146070096806</v>
+        <v>0.2408448637297486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3185100286091019</v>
+        <v>0.3194945621953755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>299</v>
@@ -6357,19 +6357,19 @@
         <v>264160</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>237950</v>
+        <v>239386</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>291309</v>
+        <v>293227</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2917674710148613</v>
+        <v>0.2917674710148612</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2628182615202855</v>
+        <v>0.2644039497270126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3217532887087496</v>
+        <v>0.3238718186678325</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>339911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>319466</v>
+        <v>319333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>359483</v>
+        <v>359905</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.724038126191893</v>
+        <v>0.7240381261918933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.680488428657653</v>
+        <v>0.6802041473514083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7657272258316803</v>
+        <v>0.7666271456757865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -6482,19 +6482,19 @@
         <v>145124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135078</v>
+        <v>134210</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154246</v>
+        <v>153607</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7740095055154069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7204290360554527</v>
+        <v>0.7158005838196273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8226583387556071</v>
+        <v>0.8192497161668281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>583</v>
@@ -6503,19 +6503,19 @@
         <v>485036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>460223</v>
+        <v>460298</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>505633</v>
+        <v>506830</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7382999607785403</v>
+        <v>0.7382999607785401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7005313337179504</v>
+        <v>0.7006452512430448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7696519159187682</v>
+        <v>0.7714736079786829</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>129555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109983</v>
+        <v>109561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150000</v>
+        <v>150133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2759618738081068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2342727741683197</v>
+        <v>0.2333728543242132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3195115713423471</v>
+        <v>0.3197958526485917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -6553,19 +6553,19 @@
         <v>42373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33251</v>
+        <v>33890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52419</v>
+        <v>53287</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2259904944845931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1773416612443931</v>
+        <v>0.180750283833172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2795709639445472</v>
+        <v>0.2841994161803726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>192</v>
@@ -6574,19 +6574,19 @@
         <v>171927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>151330</v>
+        <v>150133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>196740</v>
+        <v>196665</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2617000392214597</v>
+        <v>0.2617000392214596</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2303480840812314</v>
+        <v>0.228526392021317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2994686662820494</v>
+        <v>0.2993547487569553</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>742652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>708186</v>
+        <v>703034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>777603</v>
+        <v>777379</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6573832060153025</v>
+        <v>0.6573832060153026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6268749136890934</v>
+        <v>0.6223145235164127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6883218017257691</v>
+        <v>0.6881230374306674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>934</v>
@@ -6699,19 +6699,19 @@
         <v>650058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>624516</v>
+        <v>624899</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>672131</v>
+        <v>670224</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7560905515019533</v>
+        <v>0.7560905515019534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7263828422787799</v>
+        <v>0.7268284706188441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7817637551696799</v>
+        <v>0.7795463215505352</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1714</v>
@@ -6720,19 +6720,19 @@
         <v>1392710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1350710</v>
+        <v>1346022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1435291</v>
+        <v>1432546</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7000401975926014</v>
+        <v>0.7000401975926012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6789290774596882</v>
+        <v>0.6765723412911745</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7214430058575225</v>
+        <v>0.7200631776679434</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>387057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352106</v>
+        <v>352330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>421523</v>
+        <v>426675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3426167939846974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3116781982742309</v>
+        <v>0.3118769625693327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3731250863109065</v>
+        <v>0.3776854764835874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -6770,19 +6770,19 @@
         <v>209704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187631</v>
+        <v>189538</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>235246</v>
+        <v>234863</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2439094484980469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.21823624483032</v>
+        <v>0.2204536784494646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.27361715772122</v>
+        <v>0.2731715293811558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>630</v>
@@ -6791,19 +6791,19 @@
         <v>596762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>554181</v>
+        <v>556926</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>638762</v>
+        <v>643450</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2999598024073988</v>
+        <v>0.2999598024073987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2785569941424781</v>
+        <v>0.2799368223320567</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3210709225403118</v>
+        <v>0.3234276587088254</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>392039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>368109</v>
+        <v>366814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>417644</v>
+        <v>415556</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6950964503029878</v>
+        <v>0.6950964503029879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6526684716361479</v>
+        <v>0.6503733035555176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7404964253411497</v>
+        <v>0.7367942611005035</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1060</v>
@@ -6916,19 +6916,19 @@
         <v>669997</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>648001</v>
+        <v>650872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>688432</v>
+        <v>689213</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8084454626934067</v>
+        <v>0.8084454626934068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7819039314005086</v>
+        <v>0.7853684299682738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8306901087618519</v>
+        <v>0.8316324751476685</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1457</v>
@@ -6937,19 +6937,19 @@
         <v>1062035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1030044</v>
+        <v>1027236</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1096305</v>
+        <v>1090640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7625439261936244</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7395747183631588</v>
+        <v>0.7375585233304557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.787149917314148</v>
+        <v>0.7830828841272651</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>171967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146362</v>
+        <v>148450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195897</v>
+        <v>197192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3049035496970121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2595035746588504</v>
+        <v>0.2632057388994965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3473315283638522</v>
+        <v>0.3496266964444825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -6987,19 +6987,19 @@
         <v>158750</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140315</v>
+        <v>139534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>180746</v>
+        <v>177875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1915545373065933</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1693098912381481</v>
+        <v>0.168367524852331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2180960685994912</v>
+        <v>0.2146315700317262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>374</v>
@@ -7008,19 +7008,19 @@
         <v>330717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296447</v>
+        <v>302112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362708</v>
+        <v>365516</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2374560738063757</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2128500826858522</v>
+        <v>0.216917115872735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2604252816368412</v>
+        <v>0.2624414766695445</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>127132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100310</v>
+        <v>102665</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150201</v>
+        <v>151485</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.535907086897271</v>
+        <v>0.5359070868972708</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4228431540936189</v>
+        <v>0.4327675273714785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6331487495324625</v>
+        <v>0.6385620342832611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>942</v>
@@ -7133,19 +7133,19 @@
         <v>665716</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>637218</v>
+        <v>640567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>688354</v>
+        <v>689237</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7911744247138071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7573049028503178</v>
+        <v>0.7612857857375958</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8180783764632792</v>
+        <v>0.8191275344359209</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1006</v>
@@ -7154,19 +7154,19 @@
         <v>792849</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>752421</v>
+        <v>753326</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>827625</v>
+        <v>826107</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7350337454953929</v>
+        <v>0.7350337454953934</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6975545109167893</v>
+        <v>0.6983933478569282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7672740534127815</v>
+        <v>0.7658669198612329</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>110096</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87027</v>
+        <v>85743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136918</v>
+        <v>134563</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4640929131027291</v>
+        <v>0.4640929131027292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3668512504675376</v>
+        <v>0.3614379657167389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5771568459063811</v>
+        <v>0.5672324726285214</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>214</v>
@@ -7204,19 +7204,19 @@
         <v>175712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153074</v>
+        <v>152191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204210</v>
+        <v>200861</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.208825575286193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1819216235367204</v>
+        <v>0.1808724655640789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.242695097149681</v>
+        <v>0.2387142142624041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -7225,19 +7225,19 @@
         <v>285807</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>251031</v>
+        <v>252549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>326235</v>
+        <v>325330</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2649662545046068</v>
+        <v>0.2649662545046069</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2327259465872182</v>
+        <v>0.2341330801387673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3024454890832105</v>
+        <v>0.3016066521430722</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>2334372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2274065</v>
+        <v>2273509</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2399472</v>
+        <v>2400693</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6801500805601144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6625786543600668</v>
+        <v>0.6624168293251513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.69911760299699</v>
+        <v>0.6994733570301943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4086</v>
@@ -7350,19 +7350,19 @@
         <v>2791851</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2743934</v>
+        <v>2744009</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2836196</v>
+        <v>2835372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7699767130833413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7567615199235935</v>
+        <v>0.7567821319887065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.782206891203442</v>
+        <v>0.7819795328163005</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6447</v>
@@ -7371,19 +7371,19 @@
         <v>5126223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5047759</v>
+        <v>5040586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5201911</v>
+        <v>5202349</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7262962930294777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7151793401534589</v>
+        <v>0.7141630017859483</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7370198776114016</v>
+        <v>0.7370819342058648</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1097771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1032671</v>
+        <v>1031450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1158078</v>
+        <v>1158634</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3198499194398856</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3008823970030101</v>
+        <v>0.3005266429698056</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3374213456399334</v>
+        <v>0.3375831706748485</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1145</v>
@@ -7421,19 +7421,19 @@
         <v>834039</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>789694</v>
+        <v>790518</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>881956</v>
+        <v>881881</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2300232869166587</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2177931087965581</v>
+        <v>0.2180204671836995</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2432384800764064</v>
+        <v>0.2432178680112934</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2075</v>
@@ -7442,19 +7442,19 @@
         <v>1931810</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1856122</v>
+        <v>1855684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2010274</v>
+        <v>2017447</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2737037069705223</v>
+        <v>0.2737037069705222</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2629801223885982</v>
+        <v>0.2629180657941355</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.284820659846541</v>
+        <v>0.285836998214052</v>
       </c>
     </row>
     <row r="24">
